--- a/recommended food storage chart.xlsx
+++ b/recommended food storage chart.xlsx
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
